--- a/code.xlsx
+++ b/code.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bramyeon/Desktop/korea-happiness/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA64125C-C644-C24F-8E64-2B144905A367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E10477-9B52-2644-803E-E0DFBC23EA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21620" yWindow="-1460" windowWidth="21480" windowHeight="21100" xr2:uid="{1FC1BB6F-2D1E-AA42-9D11-316BCD7E2C6A}"/>
+    <workbookView xWindow="32300" yWindow="-1200" windowWidth="30240" windowHeight="18880" xr2:uid="{1FC1BB6F-2D1E-AA42-9D11-316BCD7E2C6A}"/>
   </bookViews>
   <sheets>
     <sheet name="code" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="590">
   <si>
     <t>code</t>
   </si>
@@ -1802,6 +1815,12 @@
   </si>
   <si>
     <t>사람들은 정치적으로 진보 혹은 보수가 되기도 합니다. 귀하는 다음 중 어디에 속한다고 생각하십니까?</t>
+  </si>
+  <si>
+    <t>range-min</t>
+  </si>
+  <si>
+    <t>range-max</t>
   </si>
 </sst>
 </file>
@@ -2295,13 +2314,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2677,19 +2693,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED68F4D-230E-944C-8FE0-B4E21CC24D32}">
-  <dimension ref="A1:D300"/>
+  <dimension ref="A1:F300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="H169" sqref="H169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="71.6640625" customWidth="1"/>
-    <col min="4" max="4" width="45.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2699,11 +2715,17 @@
       <c r="C1" t="s">
         <v>301</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>588</v>
+      </c>
+      <c r="F1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2713,8 +2735,14 @@
       <c r="C2" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2724,11 +2752,17 @@
       <c r="C3" t="s">
         <v>304</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2738,11 +2772,17 @@
       <c r="C4" t="s">
         <v>304</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2752,11 +2792,17 @@
       <c r="C5" t="s">
         <v>304</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2766,11 +2812,17 @@
       <c r="C6" t="s">
         <v>304</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2780,11 +2832,17 @@
       <c r="C7" t="s">
         <v>304</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2794,11 +2852,17 @@
       <c r="C8" t="s">
         <v>304</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2808,11 +2872,17 @@
       <c r="C9" t="s">
         <v>304</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2822,11 +2892,17 @@
       <c r="C10" t="s">
         <v>304</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2836,11 +2912,17 @@
       <c r="C11" t="s">
         <v>313</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2850,11 +2932,17 @@
       <c r="C12" t="s">
         <v>313</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2864,11 +2952,17 @@
       <c r="C13" t="s">
         <v>313</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2878,11 +2972,17 @@
       <c r="C14" t="s">
         <v>313</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2892,11 +2992,17 @@
       <c r="C15" t="s">
         <v>313</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2906,11 +3012,17 @@
       <c r="C16" t="s">
         <v>313</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2920,11 +3032,17 @@
       <c r="C17" t="s">
         <v>313</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2934,11 +3052,17 @@
       <c r="C18" t="s">
         <v>313</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2948,11 +3072,17 @@
       <c r="C19" t="s">
         <v>313</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2962,11 +3092,17 @@
       <c r="C20" t="s">
         <v>313</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2976,8 +3112,14 @@
       <c r="C21" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -2987,8 +3129,14 @@
       <c r="C22" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -2998,8 +3146,14 @@
       <c r="C23" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -3009,8 +3163,14 @@
       <c r="C24" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -3020,8 +3180,14 @@
       <c r="C25" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -3031,11 +3197,17 @@
       <c r="C26" t="s">
         <v>376</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -3045,11 +3217,17 @@
       <c r="C27" t="s">
         <v>376</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -3059,11 +3237,17 @@
       <c r="C28" t="s">
         <v>376</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -3073,11 +3257,17 @@
       <c r="C29" t="s">
         <v>376</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -3087,11 +3277,17 @@
       <c r="C30" t="s">
         <v>376</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -3101,11 +3297,17 @@
       <c r="C31" t="s">
         <v>376</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -3115,11 +3317,17 @@
       <c r="C32" t="s">
         <v>376</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -3129,11 +3337,17 @@
       <c r="C33" t="s">
         <v>376</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -3143,8 +3357,14 @@
       <c r="C34" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -3154,11 +3374,17 @@
       <c r="C35" t="s">
         <v>423</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -3168,11 +3394,17 @@
       <c r="C36" t="s">
         <v>423</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -3182,11 +3414,17 @@
       <c r="C37" t="s">
         <v>423</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -3196,11 +3434,17 @@
       <c r="C38" t="s">
         <v>423</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -3210,8 +3454,14 @@
       <c r="C39" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -3221,11 +3471,17 @@
       <c r="C40" t="s">
         <v>425</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -3235,11 +3491,17 @@
       <c r="C41" t="s">
         <v>425</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -3249,11 +3511,17 @@
       <c r="C42" t="s">
         <v>425</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -3263,11 +3531,17 @@
       <c r="C43" t="s">
         <v>425</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -3277,11 +3551,17 @@
       <c r="C44" t="s">
         <v>425</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -3291,11 +3571,17 @@
       <c r="C45" t="s">
         <v>425</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -3305,11 +3591,17 @@
       <c r="C46" t="s">
         <v>304</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -3319,11 +3611,17 @@
       <c r="C47" t="s">
         <v>304</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -3333,11 +3631,17 @@
       <c r="C48" t="s">
         <v>304</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -3347,11 +3651,17 @@
       <c r="C49" t="s">
         <v>304</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -3361,11 +3671,17 @@
       <c r="C50" t="s">
         <v>304</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -3375,11 +3691,17 @@
       <c r="C51" t="s">
         <v>304</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -3389,11 +3711,17 @@
       <c r="C52" t="s">
         <v>304</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -3403,11 +3731,17 @@
       <c r="C53" t="s">
         <v>304</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -3417,11 +3751,17 @@
       <c r="C54" t="s">
         <v>304</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -3431,11 +3771,17 @@
       <c r="C55" t="s">
         <v>304</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -3445,11 +3791,17 @@
       <c r="C56" t="s">
         <v>304</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -3459,11 +3811,17 @@
       <c r="C57" t="s">
         <v>386</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -3473,11 +3831,17 @@
       <c r="C58" t="s">
         <v>386</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -3487,11 +3851,17 @@
       <c r="C59" t="s">
         <v>386</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -3501,11 +3871,17 @@
       <c r="C60" t="s">
         <v>386</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -3515,11 +3891,17 @@
       <c r="C61" t="s">
         <v>386</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -3529,11 +3911,17 @@
       <c r="C62" t="s">
         <v>386</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -3543,11 +3931,17 @@
       <c r="C63" t="s">
         <v>387</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -3557,11 +3951,17 @@
       <c r="C64" t="s">
         <v>387</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -3571,11 +3971,17 @@
       <c r="C65" t="s">
         <v>387</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -3585,11 +3991,17 @@
       <c r="C66" t="s">
         <v>387</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -3599,11 +4011,17 @@
       <c r="C67" t="s">
         <v>387</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -3613,11 +4031,17 @@
       <c r="C68" t="s">
         <v>387</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -3627,11 +4051,17 @@
       <c r="C69" t="s">
         <v>387</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -3641,11 +4071,17 @@
       <c r="C70" t="s">
         <v>387</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -3655,11 +4091,17 @@
       <c r="C71" t="s">
         <v>387</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -3669,11 +4111,17 @@
       <c r="C72" t="s">
         <v>387</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -3683,11 +4131,17 @@
       <c r="C73" t="s">
         <v>387</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -3697,11 +4151,17 @@
       <c r="C74" t="s">
         <v>388</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -3711,11 +4171,17 @@
       <c r="C75" t="s">
         <v>388</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -3725,11 +4191,17 @@
       <c r="C76" t="s">
         <v>388</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -3739,8 +4211,14 @@
       <c r="C77" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -3750,8 +4228,14 @@
       <c r="C78" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -3761,11 +4245,17 @@
       <c r="C79" t="s">
         <v>388</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -3775,11 +4265,17 @@
       <c r="C80" t="s">
         <v>388</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -3789,11 +4285,17 @@
       <c r="C81" t="s">
         <v>388</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -3803,11 +4305,17 @@
       <c r="C82" t="s">
         <v>388</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -3817,11 +4325,17 @@
       <c r="C83" t="s">
         <v>388</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -3831,11 +4345,17 @@
       <c r="C84" t="s">
         <v>388</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -3845,11 +4365,17 @@
       <c r="C85" t="s">
         <v>388</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -3859,11 +4385,17 @@
       <c r="C86" t="s">
         <v>388</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -3873,11 +4405,17 @@
       <c r="C87" t="s">
         <v>388</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -3887,11 +4425,17 @@
       <c r="C88" t="s">
         <v>388</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -3901,11 +4445,17 @@
       <c r="C89" t="s">
         <v>388</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -3915,11 +4465,17 @@
       <c r="C90" t="s">
         <v>422</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -3929,11 +4485,17 @@
       <c r="C91" t="s">
         <v>422</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -3943,11 +4505,17 @@
       <c r="C92" t="s">
         <v>422</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -3957,11 +4525,17 @@
       <c r="C93" t="s">
         <v>422</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -3971,11 +4545,17 @@
       <c r="C94" t="s">
         <v>582</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -3985,11 +4565,17 @@
       <c r="C95" t="s">
         <v>582</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -3999,8 +4585,14 @@
       <c r="C96" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -4010,11 +4602,17 @@
       <c r="C97" t="s">
         <v>586</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -4024,11 +4622,17 @@
       <c r="C98" t="s">
         <v>497</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -4038,11 +4642,17 @@
       <c r="C99" t="s">
         <v>497</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -4052,11 +4662,17 @@
       <c r="C100" t="s">
         <v>497</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -4066,11 +4682,17 @@
       <c r="C101" t="s">
         <v>497</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -4080,11 +4702,17 @@
       <c r="C102" t="s">
         <v>497</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -4094,11 +4722,17 @@
       <c r="C103" t="s">
         <v>497</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -4108,11 +4742,17 @@
       <c r="C104" t="s">
         <v>497</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>105</v>
       </c>
@@ -4122,11 +4762,17 @@
       <c r="C105" t="s">
         <v>497</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D105" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -4136,11 +4782,17 @@
       <c r="C106" t="s">
         <v>497</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -4150,11 +4802,17 @@
       <c r="C107" t="s">
         <v>497</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D107" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -4164,11 +4822,17 @@
       <c r="C108" t="s">
         <v>497</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -4178,11 +4842,17 @@
       <c r="C109" t="s">
         <v>497</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D109" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -4192,11 +4862,17 @@
       <c r="C110" t="s">
         <v>497</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D110" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -4206,11 +4882,17 @@
       <c r="C111" t="s">
         <v>497</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D111" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -4220,11 +4902,17 @@
       <c r="C112" t="s">
         <v>497</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D112" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -4234,11 +4922,17 @@
       <c r="C113" t="s">
         <v>497</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D113" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -4248,11 +4942,17 @@
       <c r="C114" t="s">
         <v>497</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D114" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -4262,11 +4962,17 @@
       <c r="C115" t="s">
         <v>497</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D115" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -4276,11 +4982,17 @@
       <c r="C116" t="s">
         <v>497</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D116" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -4290,11 +5002,17 @@
       <c r="C117" t="s">
         <v>497</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D117" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -4304,11 +5022,17 @@
       <c r="C118" t="s">
         <v>497</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D118" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -4318,11 +5042,17 @@
       <c r="C119" t="s">
         <v>497</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D119" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -4332,11 +5062,17 @@
       <c r="C120" t="s">
         <v>497</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D120" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -4346,11 +5082,17 @@
       <c r="C121" t="s">
         <v>497</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D121" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -4360,11 +5102,17 @@
       <c r="C122" t="s">
         <v>497</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D122" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="123" spans="1:4">
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -4374,11 +5122,17 @@
       <c r="C123" t="s">
         <v>497</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="D123" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -4388,11 +5142,17 @@
       <c r="C124" t="s">
         <v>497</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D124" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -4402,11 +5162,17 @@
       <c r="C125" t="s">
         <v>497</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="D125" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -4416,11 +5182,17 @@
       <c r="C126" t="s">
         <v>497</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="D126" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -4430,11 +5202,17 @@
       <c r="C127" t="s">
         <v>497</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D127" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -4444,11 +5222,17 @@
       <c r="C128" t="s">
         <v>497</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D128" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="129" spans="1:4">
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -4458,11 +5242,17 @@
       <c r="C129" t="s">
         <v>497</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D129" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="130" spans="1:4">
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -4472,11 +5262,17 @@
       <c r="C130" t="s">
         <v>497</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D130" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="131" spans="1:4">
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -4486,11 +5282,17 @@
       <c r="C131" t="s">
         <v>497</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D131" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="132" spans="1:4">
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -4500,11 +5302,17 @@
       <c r="C132" t="s">
         <v>497</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="D132" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="133" spans="1:4">
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -4514,11 +5322,17 @@
       <c r="C133" t="s">
         <v>497</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D133" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="134" spans="1:4">
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>134</v>
       </c>
@@ -4528,11 +5342,17 @@
       <c r="C134" t="s">
         <v>497</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D134" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="135" spans="1:4">
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
         <v>135</v>
       </c>
@@ -4542,11 +5362,17 @@
       <c r="C135" t="s">
         <v>497</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="D135" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="136" spans="1:4">
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
         <v>136</v>
       </c>
@@ -4556,11 +5382,17 @@
       <c r="C136" t="s">
         <v>497</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="D136" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="137" spans="1:4">
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
         <v>137</v>
       </c>
@@ -4570,11 +5402,17 @@
       <c r="C137" t="s">
         <v>497</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="D137" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="138" spans="1:4">
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
         <v>138</v>
       </c>
@@ -4584,11 +5422,17 @@
       <c r="C138" t="s">
         <v>497</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="D138" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="139" spans="1:4">
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -4598,11 +5442,17 @@
       <c r="C139" t="s">
         <v>497</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="D139" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="140" spans="1:4">
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
         <v>140</v>
       </c>
@@ -4612,11 +5462,17 @@
       <c r="C140" t="s">
         <v>497</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="D140" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="141" spans="1:4">
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
         <v>141</v>
       </c>
@@ -4626,11 +5482,17 @@
       <c r="C141" t="s">
         <v>497</v>
       </c>
-      <c r="D141" s="2" t="s">
+      <c r="D141" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="142" spans="1:4">
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -4640,11 +5502,17 @@
       <c r="C142" t="s">
         <v>497</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="D142" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="143" spans="1:4">
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
         <v>143</v>
       </c>
@@ -4654,11 +5522,17 @@
       <c r="C143" t="s">
         <v>497</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="D143" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="144" spans="1:4">
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" t="s">
         <v>144</v>
       </c>
@@ -4668,11 +5542,17 @@
       <c r="C144" t="s">
         <v>497</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="D144" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="145" spans="1:4">
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -4682,8 +5562,14 @@
       <c r="C145" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="146" spans="1:4">
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" t="s">
         <v>146</v>
       </c>
@@ -4693,11 +5579,17 @@
       <c r="C146" t="s">
         <v>545</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="D146" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="147" spans="1:4">
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147" t="s">
         <v>147</v>
       </c>
@@ -4707,11 +5599,17 @@
       <c r="C147" t="s">
         <v>545</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="D147" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="148" spans="1:4">
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
         <v>148</v>
       </c>
@@ -4721,11 +5619,17 @@
       <c r="C148" t="s">
         <v>545</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="D148" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="149" spans="1:4">
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149" t="s">
         <v>149</v>
       </c>
@@ -4735,11 +5639,17 @@
       <c r="C149" t="s">
         <v>545</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="D149" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="150" spans="1:4">
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150" t="s">
         <v>150</v>
       </c>
@@ -4749,11 +5659,17 @@
       <c r="C150" t="s">
         <v>545</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="D150" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="151" spans="1:4">
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151" t="s">
         <v>151</v>
       </c>
@@ -4763,11 +5679,17 @@
       <c r="C151" t="s">
         <v>545</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="D151" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="152" spans="1:4">
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152" t="s">
         <v>152</v>
       </c>
@@ -4777,11 +5699,17 @@
       <c r="C152" t="s">
         <v>545</v>
       </c>
-      <c r="D152" s="2" t="s">
+      <c r="D152" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="153" spans="1:4">
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" t="s">
         <v>153</v>
       </c>
@@ -4791,11 +5719,17 @@
       <c r="C153" t="s">
         <v>545</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="D153" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="154" spans="1:4">
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" t="s">
         <v>154</v>
       </c>
@@ -4805,11 +5739,17 @@
       <c r="C154" t="s">
         <v>545</v>
       </c>
-      <c r="D154" s="2" t="s">
+      <c r="D154" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="155" spans="1:4">
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155" t="s">
         <v>155</v>
       </c>
@@ -4819,11 +5759,17 @@
       <c r="C155" t="s">
         <v>545</v>
       </c>
-      <c r="D155" s="2" t="s">
+      <c r="D155" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="156" spans="1:4">
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156" t="s">
         <v>156</v>
       </c>
@@ -4833,11 +5779,17 @@
       <c r="C156" t="s">
         <v>545</v>
       </c>
-      <c r="D156" s="2" t="s">
+      <c r="D156" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="157" spans="1:4">
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157" t="s">
         <v>157</v>
       </c>
@@ -4847,11 +5799,17 @@
       <c r="C157" t="s">
         <v>545</v>
       </c>
-      <c r="D157" s="2" t="s">
+      <c r="D157" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="158" spans="1:4">
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158" t="s">
         <v>158</v>
       </c>
@@ -4861,11 +5819,17 @@
       <c r="C158" t="s">
         <v>557</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="D158" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="159" spans="1:4">
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159" t="s">
         <v>159</v>
       </c>
@@ -4875,11 +5839,17 @@
       <c r="C159" t="s">
         <v>558</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="D159" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="160" spans="1:4">
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160" t="s">
         <v>160</v>
       </c>
@@ -4889,11 +5859,17 @@
       <c r="C160" t="s">
         <v>558</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="D160" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="161" spans="1:4">
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161" t="s">
         <v>161</v>
       </c>
@@ -4903,11 +5879,17 @@
       <c r="C161" t="s">
         <v>558</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="D161" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="162" spans="1:4">
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162" t="s">
         <v>162</v>
       </c>
@@ -4917,11 +5899,17 @@
       <c r="C162" t="s">
         <v>558</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="D162" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="163" spans="1:4">
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163" t="s">
         <v>163</v>
       </c>
@@ -4931,11 +5919,17 @@
       <c r="C163" t="s">
         <v>563</v>
       </c>
-      <c r="D163" s="2" t="s">
+      <c r="D163" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="164" spans="1:4">
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164" t="s">
         <v>164</v>
       </c>
@@ -4945,11 +5939,17 @@
       <c r="C164" t="s">
         <v>563</v>
       </c>
-      <c r="D164" s="2" t="s">
+      <c r="D164" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="165" spans="1:4">
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165" t="s">
         <v>165</v>
       </c>
@@ -4959,11 +5959,17 @@
       <c r="C165" t="s">
         <v>563</v>
       </c>
-      <c r="D165" s="2" t="s">
+      <c r="D165" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="166" spans="1:4">
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166" t="s">
         <v>166</v>
       </c>
@@ -4973,11 +5979,17 @@
       <c r="C166" t="s">
         <v>567</v>
       </c>
-      <c r="D166" s="2" t="s">
+      <c r="D166" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="167" spans="1:4">
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167" t="s">
         <v>167</v>
       </c>
@@ -4987,11 +5999,17 @@
       <c r="C167" t="s">
         <v>567</v>
       </c>
-      <c r="D167" s="2" t="s">
+      <c r="D167" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="168" spans="1:4">
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168" t="s">
         <v>168</v>
       </c>
@@ -5001,11 +6019,17 @@
       <c r="C168" t="s">
         <v>567</v>
       </c>
-      <c r="D168" s="2" t="s">
+      <c r="D168" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="169" spans="1:4">
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169" t="s">
         <v>169</v>
       </c>
@@ -5015,11 +6039,17 @@
       <c r="C169" t="s">
         <v>567</v>
       </c>
-      <c r="D169" s="2" t="s">
+      <c r="D169" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="170" spans="1:4">
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170" t="s">
         <v>170</v>
       </c>
@@ -5029,11 +6059,17 @@
       <c r="C170" t="s">
         <v>567</v>
       </c>
-      <c r="D170" s="2" t="s">
+      <c r="D170" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="171" spans="1:4">
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171" t="s">
         <v>171</v>
       </c>
@@ -5043,11 +6079,17 @@
       <c r="C171" t="s">
         <v>567</v>
       </c>
-      <c r="D171" s="2" t="s">
+      <c r="D171" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="172" spans="1:4">
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172" t="s">
         <v>172</v>
       </c>
@@ -5057,11 +6099,17 @@
       <c r="C172" t="s">
         <v>567</v>
       </c>
-      <c r="D172" s="2" t="s">
+      <c r="D172" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="173" spans="1:4">
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173" t="s">
         <v>173</v>
       </c>
@@ -5071,11 +6119,17 @@
       <c r="C173" t="s">
         <v>567</v>
       </c>
-      <c r="D173" s="2" t="s">
+      <c r="D173" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="174" spans="1:4">
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174" t="s">
         <v>174</v>
       </c>
@@ -5085,11 +6139,17 @@
       <c r="C174" t="s">
         <v>567</v>
       </c>
-      <c r="D174" s="2" t="s">
+      <c r="D174" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="175" spans="1:4">
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175" t="s">
         <v>175</v>
       </c>
@@ -5099,11 +6159,17 @@
       <c r="C175" t="s">
         <v>567</v>
       </c>
-      <c r="D175" s="2" t="s">
+      <c r="D175" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="176" spans="1:4">
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176" t="s">
         <v>176</v>
       </c>
@@ -5113,11 +6179,17 @@
       <c r="C176" t="s">
         <v>567</v>
       </c>
-      <c r="D176" s="2" t="s">
+      <c r="D176" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="177" spans="1:4">
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177" t="s">
         <v>177</v>
       </c>
@@ -5127,11 +6199,17 @@
       <c r="C177" t="s">
         <v>567</v>
       </c>
-      <c r="D177" s="2" t="s">
+      <c r="D177" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="178" spans="1:4">
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178" t="s">
         <v>178</v>
       </c>
@@ -5141,11 +6219,17 @@
       <c r="C178" t="s">
         <v>567</v>
       </c>
-      <c r="D178" s="2" t="s">
+      <c r="D178" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="179" spans="1:4">
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179" t="s">
         <v>179</v>
       </c>
@@ -5155,11 +6239,17 @@
       <c r="C179" t="s">
         <v>567</v>
       </c>
-      <c r="D179" s="2" t="s">
+      <c r="D179" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="180" spans="1:4">
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180" t="s">
         <v>180</v>
       </c>
@@ -5169,11 +6259,17 @@
       <c r="C180" t="s">
         <v>567</v>
       </c>
-      <c r="D180" s="2" t="s">
+      <c r="D180" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="181" spans="1:4">
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181" t="s">
         <v>181</v>
       </c>
@@ -5183,25 +6279,37 @@
       <c r="C181" t="s">
         <v>451</v>
       </c>
-      <c r="D181" s="2" t="s">
+      <c r="D181" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" ht="17">
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="17">
       <c r="A182" t="s">
         <v>182</v>
       </c>
       <c r="B182">
         <v>0</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="C182" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="D182" s="2" t="s">
+      <c r="D182" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="183" spans="1:4">
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183" t="s">
         <v>183</v>
       </c>
@@ -5211,11 +6319,17 @@
       <c r="C183" t="s">
         <v>455</v>
       </c>
-      <c r="D183" s="2" t="s">
+      <c r="D183" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="184" spans="1:4">
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184" t="s">
         <v>184</v>
       </c>
@@ -5225,11 +6339,17 @@
       <c r="C184" t="s">
         <v>455</v>
       </c>
-      <c r="D184" s="2" t="s">
+      <c r="D184" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="185" spans="1:4">
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185" t="s">
         <v>185</v>
       </c>
@@ -5239,11 +6359,17 @@
       <c r="C185" t="s">
         <v>455</v>
       </c>
-      <c r="D185" s="2" t="s">
+      <c r="D185" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="186" spans="1:4">
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186" t="s">
         <v>186</v>
       </c>
@@ -5253,11 +6379,17 @@
       <c r="C186" t="s">
         <v>455</v>
       </c>
-      <c r="D186" s="2" t="s">
+      <c r="D186" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="187" spans="1:4">
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187" t="s">
         <v>187</v>
       </c>
@@ -5267,11 +6399,17 @@
       <c r="C187" t="s">
         <v>455</v>
       </c>
-      <c r="D187" s="2" t="s">
+      <c r="D187" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="188" spans="1:4">
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188" t="s">
         <v>188</v>
       </c>
@@ -5281,11 +6419,17 @@
       <c r="C188" t="s">
         <v>455</v>
       </c>
-      <c r="D188" s="2" t="s">
+      <c r="D188" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="189" spans="1:4">
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189" t="s">
         <v>189</v>
       </c>
@@ -5295,11 +6439,17 @@
       <c r="C189" t="s">
         <v>455</v>
       </c>
-      <c r="D189" s="2" t="s">
+      <c r="D189" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="190" spans="1:4">
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190" t="s">
         <v>190</v>
       </c>
@@ -5309,11 +6459,17 @@
       <c r="C190" t="s">
         <v>455</v>
       </c>
-      <c r="D190" s="2" t="s">
+      <c r="D190" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="191" spans="1:4">
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191" t="s">
         <v>191</v>
       </c>
@@ -5323,11 +6479,17 @@
       <c r="C191" t="s">
         <v>455</v>
       </c>
-      <c r="D191" s="2" t="s">
+      <c r="D191" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="192" spans="1:4">
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192" t="s">
         <v>192</v>
       </c>
@@ -5337,11 +6499,17 @@
       <c r="C192" t="s">
         <v>455</v>
       </c>
-      <c r="D192" s="2" t="s">
+      <c r="D192" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="193" spans="1:4">
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193" t="s">
         <v>193</v>
       </c>
@@ -5351,11 +6519,17 @@
       <c r="C193" t="s">
         <v>455</v>
       </c>
-      <c r="D193" s="2" t="s">
+      <c r="D193" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="194" spans="1:4">
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194" t="s">
         <v>194</v>
       </c>
@@ -5365,11 +6539,17 @@
       <c r="C194" t="s">
         <v>455</v>
       </c>
-      <c r="D194" s="2" t="s">
+      <c r="D194" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="195" spans="1:4">
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195" t="s">
         <v>195</v>
       </c>
@@ -5379,11 +6559,17 @@
       <c r="C195" t="s">
         <v>455</v>
       </c>
-      <c r="D195" s="2" t="s">
+      <c r="D195" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="196" spans="1:4">
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196" t="s">
         <v>196</v>
       </c>
@@ -5393,11 +6579,17 @@
       <c r="C196" t="s">
         <v>455</v>
       </c>
-      <c r="D196" s="2" t="s">
+      <c r="D196" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="197" spans="1:4">
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197" t="s">
         <v>197</v>
       </c>
@@ -5407,11 +6599,17 @@
       <c r="C197" t="s">
         <v>455</v>
       </c>
-      <c r="D197" s="2" t="s">
+      <c r="D197" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="198" spans="1:4">
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198" t="s">
         <v>198</v>
       </c>
@@ -5421,11 +6619,17 @@
       <c r="C198" t="s">
         <v>455</v>
       </c>
-      <c r="D198" s="2" t="s">
+      <c r="D198" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="199" spans="1:4">
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199" t="s">
         <v>199</v>
       </c>
@@ -5435,11 +6639,17 @@
       <c r="C199" t="s">
         <v>455</v>
       </c>
-      <c r="D199" s="2" t="s">
+      <c r="D199" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="200" spans="1:4">
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
       <c r="A200" t="s">
         <v>200</v>
       </c>
@@ -5449,11 +6659,17 @@
       <c r="C200" t="s">
         <v>455</v>
       </c>
-      <c r="D200" s="2" t="s">
+      <c r="D200" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="201" spans="1:4">
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201" t="s">
         <v>201</v>
       </c>
@@ -5463,11 +6679,17 @@
       <c r="C201" t="s">
         <v>455</v>
       </c>
-      <c r="D201" s="2" t="s">
+      <c r="D201" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="202" spans="1:4">
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202" t="s">
         <v>202</v>
       </c>
@@ -5477,11 +6699,17 @@
       <c r="C202" t="s">
         <v>455</v>
       </c>
-      <c r="D202" s="2" t="s">
+      <c r="D202" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="203" spans="1:4">
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
       <c r="A203" t="s">
         <v>203</v>
       </c>
@@ -5491,11 +6719,17 @@
       <c r="C203" t="s">
         <v>455</v>
       </c>
-      <c r="D203" s="2" t="s">
+      <c r="D203" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="204" spans="1:4">
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
       <c r="A204" t="s">
         <v>204</v>
       </c>
@@ -5505,11 +6739,17 @@
       <c r="C204" t="s">
         <v>455</v>
       </c>
-      <c r="D204" s="2" t="s">
+      <c r="D204" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="205" spans="1:4">
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
       <c r="A205" t="s">
         <v>205</v>
       </c>
@@ -5519,11 +6759,17 @@
       <c r="C205" t="s">
         <v>455</v>
       </c>
-      <c r="D205" s="2" t="s">
+      <c r="D205" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="206" spans="1:4">
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
       <c r="A206" t="s">
         <v>206</v>
       </c>
@@ -5533,11 +6779,17 @@
       <c r="C206" t="s">
         <v>455</v>
       </c>
-      <c r="D206" s="2" t="s">
+      <c r="D206" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="207" spans="1:4">
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
       <c r="A207" t="s">
         <v>207</v>
       </c>
@@ -5547,11 +6799,17 @@
       <c r="C207" t="s">
         <v>456</v>
       </c>
-      <c r="D207" s="2" t="s">
+      <c r="D207" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="208" spans="1:4">
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
       <c r="A208" t="s">
         <v>208</v>
       </c>
@@ -5561,11 +6819,17 @@
       <c r="C208" t="s">
         <v>456</v>
       </c>
-      <c r="D208" s="2" t="s">
+      <c r="D208" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="209" spans="1:4">
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
       <c r="A209" t="s">
         <v>209</v>
       </c>
@@ -5575,11 +6839,17 @@
       <c r="C209" t="s">
         <v>456</v>
       </c>
-      <c r="D209" s="2" t="s">
+      <c r="D209" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="210" spans="1:4">
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
       <c r="A210" t="s">
         <v>210</v>
       </c>
@@ -5589,11 +6859,17 @@
       <c r="C210" t="s">
         <v>456</v>
       </c>
-      <c r="D210" s="2" t="s">
+      <c r="D210" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="211" spans="1:4">
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
       <c r="A211" t="s">
         <v>211</v>
       </c>
@@ -5603,11 +6879,17 @@
       <c r="C211" t="s">
         <v>456</v>
       </c>
-      <c r="D211" s="2" t="s">
+      <c r="D211" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="212" spans="1:4">
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
       <c r="A212" t="s">
         <v>212</v>
       </c>
@@ -5617,11 +6899,17 @@
       <c r="C212" t="s">
         <v>456</v>
       </c>
-      <c r="D212" s="2" t="s">
+      <c r="D212" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="213" spans="1:4">
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
       <c r="A213" t="s">
         <v>213</v>
       </c>
@@ -5631,11 +6919,17 @@
       <c r="C213" t="s">
         <v>456</v>
       </c>
-      <c r="D213" s="2" t="s">
+      <c r="D213" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="214" spans="1:4">
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
       <c r="A214" t="s">
         <v>214</v>
       </c>
@@ -5645,11 +6939,17 @@
       <c r="C214" t="s">
         <v>456</v>
       </c>
-      <c r="D214" s="2" t="s">
+      <c r="D214" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="215" spans="1:4">
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
       <c r="A215" t="s">
         <v>215</v>
       </c>
@@ -5659,11 +6959,17 @@
       <c r="C215" t="s">
         <v>488</v>
       </c>
-      <c r="D215" s="2" t="s">
+      <c r="D215" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="216" spans="1:4">
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
       <c r="A216" t="s">
         <v>216</v>
       </c>
@@ -5673,11 +6979,17 @@
       <c r="C216" t="s">
         <v>488</v>
       </c>
-      <c r="D216" s="2" t="s">
+      <c r="D216" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="217" spans="1:4">
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
       <c r="A217" t="s">
         <v>217</v>
       </c>
@@ -5687,11 +6999,17 @@
       <c r="C217" t="s">
         <v>488</v>
       </c>
-      <c r="D217" s="2" t="s">
+      <c r="D217" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="218" spans="1:4">
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
       <c r="A218" t="s">
         <v>218</v>
       </c>
@@ -5701,11 +7019,17 @@
       <c r="C218" t="s">
         <v>488</v>
       </c>
-      <c r="D218" s="2" t="s">
+      <c r="D218" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="219" spans="1:4">
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
       <c r="A219" t="s">
         <v>219</v>
       </c>
@@ -5715,11 +7039,17 @@
       <c r="C219" t="s">
         <v>488</v>
       </c>
-      <c r="D219" s="2" t="s">
+      <c r="D219" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="220" spans="1:4">
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
       <c r="A220" t="s">
         <v>220</v>
       </c>
@@ -5729,11 +7059,17 @@
       <c r="C220" t="s">
         <v>488</v>
       </c>
-      <c r="D220" s="2" t="s">
+      <c r="D220" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="221" spans="1:4">
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
       <c r="A221" t="s">
         <v>221</v>
       </c>
@@ -5743,11 +7079,17 @@
       <c r="C221" t="s">
         <v>488</v>
       </c>
-      <c r="D221" s="2" t="s">
+      <c r="D221" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="222" spans="1:4">
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
       <c r="A222" t="s">
         <v>222</v>
       </c>
@@ -5757,11 +7099,17 @@
       <c r="C222" t="s">
         <v>494</v>
       </c>
-      <c r="D222" s="2" t="s">
+      <c r="D222" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="223" spans="1:4">
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
       <c r="A223" t="s">
         <v>223</v>
       </c>
@@ -5771,11 +7119,17 @@
       <c r="C223" t="s">
         <v>494</v>
       </c>
-      <c r="D223" s="2" t="s">
+      <c r="D223" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="224" spans="1:4">
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
       <c r="A224" t="s">
         <v>224</v>
       </c>
@@ -5785,11 +7139,17 @@
       <c r="C224" t="s">
         <v>494</v>
       </c>
-      <c r="D224" s="2" t="s">
+      <c r="D224" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="225" spans="1:4">
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
       <c r="A225" t="s">
         <v>225</v>
       </c>
@@ -5799,11 +7159,17 @@
       <c r="C225" t="s">
         <v>494</v>
       </c>
-      <c r="D225" s="2" t="s">
+      <c r="D225" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="226" spans="1:4">
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
       <c r="A226" t="s">
         <v>226</v>
       </c>
@@ -5813,11 +7179,17 @@
       <c r="C226" t="s">
         <v>494</v>
       </c>
-      <c r="D226" s="2" t="s">
+      <c r="D226" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="227" spans="1:4">
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
       <c r="A227" t="s">
         <v>227</v>
       </c>
@@ -5827,11 +7199,17 @@
       <c r="C227" t="s">
         <v>494</v>
       </c>
-      <c r="D227" s="2" t="s">
+      <c r="D227" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="228" spans="1:4">
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
       <c r="A228" t="s">
         <v>228</v>
       </c>
@@ -5841,11 +7219,17 @@
       <c r="C228" t="s">
         <v>494</v>
       </c>
-      <c r="D228" s="2" t="s">
+      <c r="D228" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="229" spans="1:4">
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
       <c r="A229" t="s">
         <v>229</v>
       </c>
@@ -5855,11 +7239,17 @@
       <c r="C229" t="s">
         <v>494</v>
       </c>
-      <c r="D229" s="2" t="s">
+      <c r="D229" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="230" spans="1:4">
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
       <c r="A230" t="s">
         <v>230</v>
       </c>
@@ -5869,11 +7259,17 @@
       <c r="C230" t="s">
         <v>494</v>
       </c>
-      <c r="D230" s="2" t="s">
+      <c r="D230" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="231" spans="1:4">
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
       <c r="A231" t="s">
         <v>231</v>
       </c>
@@ -5883,11 +7279,17 @@
       <c r="C231" t="s">
         <v>494</v>
       </c>
-      <c r="D231" s="2" t="s">
+      <c r="D231" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="232" spans="1:4">
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
       <c r="A232" t="s">
         <v>232</v>
       </c>
@@ -5897,11 +7299,17 @@
       <c r="C232" t="s">
         <v>494</v>
       </c>
-      <c r="D232" s="2" t="s">
+      <c r="D232" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="233" spans="1:4">
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
       <c r="A233" t="s">
         <v>233</v>
       </c>
@@ -5911,11 +7319,17 @@
       <c r="C233" t="s">
         <v>494</v>
       </c>
-      <c r="D233" s="2" t="s">
+      <c r="D233" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="234" spans="1:4">
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
       <c r="A234" t="s">
         <v>234</v>
       </c>
@@ -5925,11 +7339,17 @@
       <c r="C234" t="s">
         <v>494</v>
       </c>
-      <c r="D234" s="2" t="s">
+      <c r="D234" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="235" spans="1:4">
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
       <c r="A235" t="s">
         <v>235</v>
       </c>
@@ -5939,11 +7359,17 @@
       <c r="C235" t="s">
         <v>494</v>
       </c>
-      <c r="D235" s="2" t="s">
+      <c r="D235" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="236" spans="1:4">
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
       <c r="A236" t="s">
         <v>236</v>
       </c>
@@ -5953,11 +7379,17 @@
       <c r="C236" t="s">
         <v>494</v>
       </c>
-      <c r="D236" s="2" t="s">
+      <c r="D236" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="237" spans="1:4">
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
       <c r="A237" t="s">
         <v>237</v>
       </c>
@@ -5967,11 +7399,17 @@
       <c r="C237" t="s">
         <v>494</v>
       </c>
-      <c r="D237" s="2" t="s">
+      <c r="D237" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="238" spans="1:4">
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
       <c r="A238" t="s">
         <v>238</v>
       </c>
@@ -5981,11 +7419,17 @@
       <c r="C238" t="s">
         <v>494</v>
       </c>
-      <c r="D238" s="2" t="s">
+      <c r="D238" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="239" spans="1:4">
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
       <c r="A239" t="s">
         <v>239</v>
       </c>
@@ -5995,11 +7439,17 @@
       <c r="C239" t="s">
         <v>494</v>
       </c>
-      <c r="D239" s="2" t="s">
+      <c r="D239" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="240" spans="1:4">
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
       <c r="A240" t="s">
         <v>240</v>
       </c>
@@ -6009,11 +7459,17 @@
       <c r="C240" t="s">
         <v>494</v>
       </c>
-      <c r="D240" s="2" t="s">
+      <c r="D240" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="241" spans="1:4">
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
       <c r="A241" t="s">
         <v>241</v>
       </c>
@@ -6023,11 +7479,17 @@
       <c r="C241" t="s">
         <v>494</v>
       </c>
-      <c r="D241" s="2" t="s">
+      <c r="D241" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="242" spans="1:4">
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
       <c r="A242" t="s">
         <v>242</v>
       </c>
@@ -6037,11 +7499,17 @@
       <c r="C242" t="s">
         <v>494</v>
       </c>
-      <c r="D242" s="2" t="s">
+      <c r="D242" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="243" spans="1:4">
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
       <c r="A243" t="s">
         <v>243</v>
       </c>
@@ -6051,11 +7519,17 @@
       <c r="C243" t="s">
         <v>494</v>
       </c>
-      <c r="D243" s="2" t="s">
+      <c r="D243" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="244" spans="1:4">
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
       <c r="A244" t="s">
         <v>244</v>
       </c>
@@ -6065,11 +7539,17 @@
       <c r="C244" t="s">
         <v>494</v>
       </c>
-      <c r="D244" s="2" t="s">
+      <c r="D244" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="245" spans="1:4">
+      <c r="E244">
+        <v>0</v>
+      </c>
+      <c r="F244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
       <c r="A245" t="s">
         <v>245</v>
       </c>
@@ -6079,11 +7559,17 @@
       <c r="C245" t="s">
         <v>494</v>
       </c>
-      <c r="D245" s="2" t="s">
+      <c r="D245" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="246" spans="1:4">
+      <c r="E245">
+        <v>0</v>
+      </c>
+      <c r="F245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
       <c r="A246" t="s">
         <v>246</v>
       </c>
@@ -6093,11 +7579,17 @@
       <c r="C246" t="s">
         <v>495</v>
       </c>
-      <c r="D246" s="2" t="s">
+      <c r="D246" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="247" spans="1:4">
+      <c r="E246">
+        <v>0</v>
+      </c>
+      <c r="F246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
       <c r="A247" t="s">
         <v>247</v>
       </c>
@@ -6107,11 +7599,17 @@
       <c r="C247" t="s">
         <v>495</v>
       </c>
-      <c r="D247" s="2" t="s">
+      <c r="D247" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="248" spans="1:4">
+      <c r="E247">
+        <v>0</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
       <c r="A248" t="s">
         <v>248</v>
       </c>
@@ -6121,11 +7619,17 @@
       <c r="C248" t="s">
         <v>495</v>
       </c>
-      <c r="D248" s="2" t="s">
+      <c r="D248" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="249" spans="1:4">
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
       <c r="A249" t="s">
         <v>249</v>
       </c>
@@ -6135,11 +7639,17 @@
       <c r="C249" t="s">
         <v>495</v>
       </c>
-      <c r="D249" s="2" t="s">
+      <c r="D249" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="250" spans="1:4">
+      <c r="E249">
+        <v>0</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
       <c r="A250" t="s">
         <v>250</v>
       </c>
@@ -6149,11 +7659,17 @@
       <c r="C250" t="s">
         <v>495</v>
       </c>
-      <c r="D250" s="2" t="s">
+      <c r="D250" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="251" spans="1:4">
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
       <c r="A251" t="s">
         <v>251</v>
       </c>
@@ -6163,11 +7679,17 @@
       <c r="C251" t="s">
         <v>495</v>
       </c>
-      <c r="D251" s="2" t="s">
+      <c r="D251" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="252" spans="1:4">
+      <c r="E251">
+        <v>0</v>
+      </c>
+      <c r="F251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
       <c r="A252" t="s">
         <v>252</v>
       </c>
@@ -6177,11 +7699,17 @@
       <c r="C252" t="s">
         <v>495</v>
       </c>
-      <c r="D252" s="2" t="s">
+      <c r="D252" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="253" spans="1:4">
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
       <c r="A253" t="s">
         <v>253</v>
       </c>
@@ -6191,11 +7719,17 @@
       <c r="C253" t="s">
         <v>495</v>
       </c>
-      <c r="D253" s="2" t="s">
+      <c r="D253" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="254" spans="1:4">
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
       <c r="A254" t="s">
         <v>254</v>
       </c>
@@ -6205,11 +7739,17 @@
       <c r="C254" t="s">
         <v>496</v>
       </c>
-      <c r="D254" s="2" t="s">
+      <c r="D254" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="255" spans="1:4">
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
       <c r="A255" t="s">
         <v>255</v>
       </c>
@@ -6219,11 +7759,17 @@
       <c r="C255" t="s">
         <v>496</v>
       </c>
-      <c r="D255" s="2" t="s">
+      <c r="D255" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="256" spans="1:4">
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
       <c r="A256" t="s">
         <v>256</v>
       </c>
@@ -6233,11 +7779,17 @@
       <c r="C256" t="s">
         <v>496</v>
       </c>
-      <c r="D256" s="2" t="s">
+      <c r="D256" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="257" spans="1:4">
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="F256">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
       <c r="A257" t="s">
         <v>257</v>
       </c>
@@ -6247,11 +7799,17 @@
       <c r="C257" t="s">
         <v>496</v>
       </c>
-      <c r="D257" s="2" t="s">
+      <c r="D257" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="258" spans="1:4">
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="F257">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
       <c r="A258" t="s">
         <v>258</v>
       </c>
@@ -6261,11 +7819,17 @@
       <c r="C258" t="s">
         <v>496</v>
       </c>
-      <c r="D258" s="2" t="s">
+      <c r="D258" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="259" spans="1:4">
+      <c r="E258">
+        <v>0</v>
+      </c>
+      <c r="F258">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
       <c r="A259" t="s">
         <v>259</v>
       </c>
@@ -6275,11 +7839,17 @@
       <c r="C259" t="s">
         <v>496</v>
       </c>
-      <c r="D259" s="2" t="s">
+      <c r="D259" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="260" spans="1:4">
+      <c r="E259">
+        <v>0</v>
+      </c>
+      <c r="F259">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
       <c r="A260" t="s">
         <v>260</v>
       </c>
@@ -6289,11 +7859,17 @@
       <c r="C260" t="s">
         <v>496</v>
       </c>
-      <c r="D260" s="2" t="s">
+      <c r="D260" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="261" spans="1:4">
+      <c r="E260">
+        <v>0</v>
+      </c>
+      <c r="F260">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
       <c r="A261" t="s">
         <v>261</v>
       </c>
@@ -6303,11 +7879,17 @@
       <c r="C261" t="s">
         <v>342</v>
       </c>
-      <c r="D261" s="2" t="s">
+      <c r="D261" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="262" spans="1:4">
+      <c r="E261">
+        <v>0</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
       <c r="A262" t="s">
         <v>262</v>
       </c>
@@ -6317,11 +7899,17 @@
       <c r="C262" t="s">
         <v>342</v>
       </c>
-      <c r="D262" s="2" t="s">
+      <c r="D262" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="263" spans="1:4">
+      <c r="E262">
+        <v>0</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
       <c r="A263" t="s">
         <v>263</v>
       </c>
@@ -6331,11 +7919,17 @@
       <c r="C263" t="s">
         <v>342</v>
       </c>
-      <c r="D263" s="2" t="s">
+      <c r="D263" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="264" spans="1:4">
+      <c r="E263">
+        <v>0</v>
+      </c>
+      <c r="F263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
       <c r="A264" t="s">
         <v>264</v>
       </c>
@@ -6345,11 +7939,17 @@
       <c r="C264" t="s">
         <v>342</v>
       </c>
-      <c r="D264" s="2" t="s">
+      <c r="D264" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="265" spans="1:4">
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="F264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
       <c r="A265" t="s">
         <v>265</v>
       </c>
@@ -6359,11 +7959,17 @@
       <c r="C265" t="s">
         <v>342</v>
       </c>
-      <c r="D265" s="2" t="s">
+      <c r="D265" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="266" spans="1:4">
+      <c r="E265">
+        <v>0</v>
+      </c>
+      <c r="F265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
       <c r="A266" t="s">
         <v>266</v>
       </c>
@@ -6373,11 +7979,17 @@
       <c r="C266" t="s">
         <v>332</v>
       </c>
-      <c r="D266" s="2" t="s">
+      <c r="D266" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="267" spans="1:4">
+      <c r="E266">
+        <v>0</v>
+      </c>
+      <c r="F266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
       <c r="A267" t="s">
         <v>267</v>
       </c>
@@ -6387,11 +7999,17 @@
       <c r="C267" t="s">
         <v>332</v>
       </c>
-      <c r="D267" s="2" t="s">
+      <c r="D267" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="268" spans="1:4">
+      <c r="E267">
+        <v>0</v>
+      </c>
+      <c r="F267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
       <c r="A268" t="s">
         <v>268</v>
       </c>
@@ -6401,11 +8019,17 @@
       <c r="C268" t="s">
         <v>332</v>
       </c>
-      <c r="D268" s="2" t="s">
+      <c r="D268" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="269" spans="1:4">
+      <c r="E268">
+        <v>0</v>
+      </c>
+      <c r="F268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
       <c r="A269" t="s">
         <v>269</v>
       </c>
@@ -6415,11 +8039,17 @@
       <c r="C269" t="s">
         <v>332</v>
       </c>
-      <c r="D269" s="2" t="s">
+      <c r="D269" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="270" spans="1:4">
+      <c r="E269">
+        <v>0</v>
+      </c>
+      <c r="F269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
       <c r="A270" t="s">
         <v>270</v>
       </c>
@@ -6429,11 +8059,17 @@
       <c r="C270" t="s">
         <v>332</v>
       </c>
-      <c r="D270" s="2" t="s">
+      <c r="D270" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="271" spans="1:4">
+      <c r="E270">
+        <v>0</v>
+      </c>
+      <c r="F270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
       <c r="A271" t="s">
         <v>271</v>
       </c>
@@ -6443,11 +8079,17 @@
       <c r="C271" t="s">
         <v>332</v>
       </c>
-      <c r="D271" s="2" t="s">
+      <c r="D271" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="272" spans="1:4">
+      <c r="E271">
+        <v>0</v>
+      </c>
+      <c r="F271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
       <c r="A272" t="s">
         <v>272</v>
       </c>
@@ -6457,11 +8099,17 @@
       <c r="C272" t="s">
         <v>332</v>
       </c>
-      <c r="D272" s="2" t="s">
+      <c r="D272" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="273" spans="1:4">
+      <c r="E272">
+        <v>0</v>
+      </c>
+      <c r="F272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
       <c r="A273" t="s">
         <v>273</v>
       </c>
@@ -6471,11 +8119,17 @@
       <c r="C273" t="s">
         <v>332</v>
       </c>
-      <c r="D273" s="2" t="s">
+      <c r="D273" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="274" spans="1:4">
+      <c r="E273">
+        <v>0</v>
+      </c>
+      <c r="F273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
       <c r="A274" t="s">
         <v>274</v>
       </c>
@@ -6485,11 +8139,17 @@
       <c r="C274" t="s">
         <v>332</v>
       </c>
-      <c r="D274" s="2" t="s">
+      <c r="D274" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="275" spans="1:4">
+      <c r="E274">
+        <v>0</v>
+      </c>
+      <c r="F274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
       <c r="A275" t="s">
         <v>275</v>
       </c>
@@ -6499,11 +8159,17 @@
       <c r="C275" t="s">
         <v>332</v>
       </c>
-      <c r="D275" s="2" t="s">
+      <c r="D275" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="276" spans="1:4">
+      <c r="E275">
+        <v>0</v>
+      </c>
+      <c r="F275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
       <c r="A276" t="s">
         <v>276</v>
       </c>
@@ -6513,11 +8179,17 @@
       <c r="C276" t="s">
         <v>332</v>
       </c>
-      <c r="D276" s="2" t="s">
+      <c r="D276" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="277" spans="1:4">
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
       <c r="A277" t="s">
         <v>277</v>
       </c>
@@ -6527,11 +8199,17 @@
       <c r="C277" t="s">
         <v>333</v>
       </c>
-      <c r="D277" s="2" t="s">
+      <c r="D277" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="278" spans="1:4">
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
       <c r="A278" t="s">
         <v>278</v>
       </c>
@@ -6541,8 +8219,14 @@
       <c r="C278" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="279" spans="1:4">
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
       <c r="A279" t="s">
         <v>279</v>
       </c>
@@ -6552,11 +8236,17 @@
       <c r="C279" t="s">
         <v>336</v>
       </c>
-      <c r="D279" s="2" t="s">
+      <c r="D279" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="280" spans="1:4">
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
       <c r="A280" t="s">
         <v>280</v>
       </c>
@@ -6566,11 +8256,17 @@
       <c r="C280" t="s">
         <v>336</v>
       </c>
-      <c r="D280" s="2" t="s">
+      <c r="D280" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="281" spans="1:4">
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
       <c r="A281" t="s">
         <v>281</v>
       </c>
@@ -6580,11 +8276,17 @@
       <c r="C281" t="s">
         <v>336</v>
       </c>
-      <c r="D281" s="2" t="s">
+      <c r="D281" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="282" spans="1:4">
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
       <c r="A282" t="s">
         <v>282</v>
       </c>
@@ -6594,11 +8296,17 @@
       <c r="C282" t="s">
         <v>336</v>
       </c>
-      <c r="D282" s="2" t="s">
+      <c r="D282" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="283" spans="1:4">
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
       <c r="A283" t="s">
         <v>283</v>
       </c>
@@ -6608,11 +8316,17 @@
       <c r="C283" t="s">
         <v>336</v>
       </c>
-      <c r="D283" s="2" t="s">
+      <c r="D283" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="284" spans="1:4">
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
       <c r="A284" t="s">
         <v>284</v>
       </c>
@@ -6622,11 +8336,17 @@
       <c r="C284" t="s">
         <v>337</v>
       </c>
-      <c r="D284" s="2" t="s">
+      <c r="D284" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="285" spans="1:4">
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
       <c r="A285" t="s">
         <v>285</v>
       </c>
@@ -6636,11 +8356,17 @@
       <c r="C285" t="s">
         <v>337</v>
       </c>
-      <c r="D285" s="2" t="s">
+      <c r="D285" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="286" spans="1:4">
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
       <c r="A286" t="s">
         <v>286</v>
       </c>
@@ -6650,11 +8376,17 @@
       <c r="C286" t="s">
         <v>337</v>
       </c>
-      <c r="D286" s="2" t="s">
+      <c r="D286" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="287" spans="1:4">
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
       <c r="A287" t="s">
         <v>287</v>
       </c>
@@ -6664,11 +8396,17 @@
       <c r="C287" t="s">
         <v>337</v>
       </c>
-      <c r="D287" s="2" t="s">
+      <c r="D287" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="288" spans="1:4">
+      <c r="E287">
+        <v>0</v>
+      </c>
+      <c r="F287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
       <c r="A288" t="s">
         <v>288</v>
       </c>
@@ -6678,11 +8416,17 @@
       <c r="C288" t="s">
         <v>337</v>
       </c>
-      <c r="D288" s="2" t="s">
+      <c r="D288" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="289" spans="1:4">
+      <c r="E288">
+        <v>0</v>
+      </c>
+      <c r="F288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
       <c r="A289" t="s">
         <v>289</v>
       </c>
@@ -6692,11 +8436,17 @@
       <c r="C289" t="s">
         <v>337</v>
       </c>
-      <c r="D289" s="2" t="s">
+      <c r="D289" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="290" spans="1:4">
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
       <c r="A290" t="s">
         <v>290</v>
       </c>
@@ -6706,11 +8456,17 @@
       <c r="C290" t="s">
         <v>338</v>
       </c>
-      <c r="D290" s="2" t="s">
+      <c r="D290" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="291" spans="1:4">
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
       <c r="A291" t="s">
         <v>291</v>
       </c>
@@ -6720,11 +8476,17 @@
       <c r="C291" t="s">
         <v>338</v>
       </c>
-      <c r="D291" s="2" t="s">
+      <c r="D291" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="292" spans="1:4">
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="F291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
       <c r="A292" t="s">
         <v>292</v>
       </c>
@@ -6734,11 +8496,17 @@
       <c r="C292" t="s">
         <v>338</v>
       </c>
-      <c r="D292" s="2" t="s">
+      <c r="D292" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="293" spans="1:4">
+      <c r="E292">
+        <v>0</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
       <c r="A293" t="s">
         <v>293</v>
       </c>
@@ -6748,11 +8516,17 @@
       <c r="C293" t="s">
         <v>338</v>
       </c>
-      <c r="D293" s="2" t="s">
+      <c r="D293" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="294" spans="1:4">
+      <c r="E293">
+        <v>0</v>
+      </c>
+      <c r="F293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
       <c r="A294" t="s">
         <v>294</v>
       </c>
@@ -6762,11 +8536,17 @@
       <c r="C294" t="s">
         <v>338</v>
       </c>
-      <c r="D294" s="2" t="s">
+      <c r="D294" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="295" spans="1:4">
+      <c r="E294">
+        <v>0</v>
+      </c>
+      <c r="F294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
       <c r="A295" t="s">
         <v>295</v>
       </c>
@@ -6776,11 +8556,17 @@
       <c r="C295" t="s">
         <v>338</v>
       </c>
-      <c r="D295" s="2" t="s">
+      <c r="D295" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="296" spans="1:4">
+      <c r="E295">
+        <v>0</v>
+      </c>
+      <c r="F295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
       <c r="A296" t="s">
         <v>296</v>
       </c>
@@ -6790,22 +8576,34 @@
       <c r="C296" t="s">
         <v>338</v>
       </c>
-      <c r="D296" s="2" t="s">
+      <c r="D296" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" ht="17">
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="F296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
       <c r="A297" t="s">
         <v>297</v>
       </c>
       <c r="B297">
         <v>0</v>
       </c>
-      <c r="C297" s="1" t="s">
+      <c r="C297" s="2" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="298" spans="1:4">
+      <c r="E297">
+        <v>1</v>
+      </c>
+      <c r="F297">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
       <c r="A298" t="s">
         <v>298</v>
       </c>
@@ -6815,11 +8613,17 @@
       <c r="C298" t="s">
         <v>340</v>
       </c>
-      <c r="D298" s="2" t="s">
+      <c r="D298" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="299" spans="1:4">
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="F298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
       <c r="A299" t="s">
         <v>299</v>
       </c>
@@ -6829,8 +8633,14 @@
       <c r="C299" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="300" spans="1:4">
+      <c r="E299">
+        <v>2020</v>
+      </c>
+      <c r="F299">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
       <c r="A300" t="s">
         <v>300</v>
       </c>
@@ -6840,8 +8650,14 @@
       <c r="C300" t="s">
         <v>327</v>
       </c>
-      <c r="D300" s="2" t="s">
+      <c r="D300" t="s">
         <v>326</v>
+      </c>
+      <c r="E300">
+        <v>0</v>
+      </c>
+      <c r="F300">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
